--- a/[Data] WES_PASS/Patient-56-indels.xlsx
+++ b/[Data] WES_PASS/Patient-56-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="415">
   <si>
     <t>NG.8132_56B_lib74114_3782_3</t>
   </si>
@@ -43,772 +43,1222 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_7166315</t>
   </si>
   <si>
-    <t>CAMTA1</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_89630624   </t>
   </si>
   <si>
     <t>chr1_46073813</t>
   </si>
   <si>
-    <t>NASP</t>
+    <t>ARHGEF33 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_39178312   </t>
   </si>
   <si>
     <t>chr1_62237396</t>
   </si>
   <si>
-    <t>INADL</t>
+    <t>DPP10 intron_variant:DPP10 intron_variant&amp;non_coding_transcript_variant:DPP10 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_116256911   </t>
   </si>
   <si>
     <t>chr1_152944389</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>GPD1L intron_variant&amp;non_coding_transcript_variant:GPD1L intron_variant&amp;NMD_transcript_variant:GPD1L intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_32200989   </t>
   </si>
   <si>
     <t>chr1_158853087</t>
   </si>
   <si>
-    <t>RP11-393K10.1</t>
+    <t xml:space="preserve">chr3_71804170   </t>
   </si>
   <si>
     <t>chr1_167368791</t>
   </si>
   <si>
-    <t>POU2F1</t>
+    <t>NOP14 intron_variant:NOP14-AS1 intron_variant&amp;non_coding_transcript_variant:NOP14 synonymous_variant:NOP14 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_2941046   </t>
   </si>
   <si>
     <t>chr1_229385705</t>
   </si>
   <si>
+    <t>DMP1 missense_variant:RP11-742B18.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_88583927   </t>
+  </si>
+  <si>
     <t>chr1_241886664</t>
   </si>
   <si>
-    <t>WDR64</t>
+    <t>PIK3R1 missense_variant:PIK3R1 3_prime_UTR_variant&amp;NMD_transcript_variant:PIK3R1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr5_67589138   PIK3R1 SNV missense_variant:3_prime_UTR_variant&amp;NMD_transcript_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>PIK3R1:PIK3R1:PIK3R1</t>
+  </si>
+  <si>
+    <t>missense_variant:3_prime_UTR_variant&amp;NMD_transcript_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr2_23980108</t>
   </si>
   <si>
-    <t>ATAD2B</t>
+    <t xml:space="preserve">chr5_174869321   </t>
   </si>
   <si>
     <t>chr2_65893997</t>
   </si>
   <si>
-    <t>AC074391.1:KRT18P33</t>
+    <t xml:space="preserve">chr6_12296354   </t>
   </si>
   <si>
     <t>chr2_98392524</t>
   </si>
   <si>
+    <t>GRM1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_146707911   </t>
+  </si>
+  <si>
     <t>chr2_112592117</t>
   </si>
   <si>
-    <t>ANAPC1</t>
+    <t xml:space="preserve">chr6_160319731   </t>
   </si>
   <si>
     <t>chr2_152547485</t>
   </si>
   <si>
-    <t>NEB</t>
+    <t xml:space="preserve">chr8_81872364   </t>
   </si>
   <si>
     <t>chr2_159481203</t>
   </si>
   <si>
-    <t>PKP4</t>
+    <t>RGS22 missense_variant:RGS22 3_prime_UTR_variant&amp;NMD_transcript_variant:RGS22 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RGS22 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_101051209   </t>
   </si>
   <si>
     <t>chr2_198761891</t>
   </si>
   <si>
-    <t>PLCL1</t>
+    <t>DENND4C non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:DENND4C missense_variant:DENND4C 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_19336315   </t>
   </si>
   <si>
     <t>chr2_241631577</t>
   </si>
   <si>
-    <t>AQP12A</t>
+    <t>OOSP2 3_prime_UTR_variant:OOSP2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_59814282   </t>
   </si>
   <si>
     <t>chr3_77613740</t>
   </si>
   <si>
-    <t>ROBO2</t>
+    <t>SERPINA1 intron_variant:SERPINA1 intron_variant&amp;NMD_transcript_variant:SERPINA1 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_94845708   </t>
   </si>
   <si>
     <t>chr3_89157126</t>
   </si>
   <si>
+    <t>ATP10A intron_variant&amp;NMD_transcript_variant:ATP10A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_25971057   </t>
+  </si>
+  <si>
+    <t>chr3_125534911</t>
+  </si>
+  <si>
+    <t>ETFA intron_variant:ETFA intron_variant&amp;non_coding_transcript_variant:ETFA intron_variant&amp;NMD_transcript_variant:TYRO3P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_76552660   </t>
+  </si>
+  <si>
+    <t>chr3_125534931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_76552673   </t>
+  </si>
+  <si>
+    <t>chr3_126390443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_76552684   </t>
+  </si>
+  <si>
+    <t>chr4_289034</t>
+  </si>
+  <si>
+    <t>CDH19 intron_variant&amp;NMD_transcript_variant:CDH19 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_64218567   </t>
+  </si>
+  <si>
+    <t>chr4_289058</t>
+  </si>
+  <si>
+    <t>LINGO3 inframe_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_2290756   </t>
+  </si>
+  <si>
+    <t>chr4_337950</t>
+  </si>
+  <si>
+    <t>ATP4A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_36049455   </t>
+  </si>
+  <si>
+    <t>chr4_337977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_36049467   </t>
+  </si>
+  <si>
+    <t>chr4_4190507</t>
+  </si>
+  <si>
+    <t>HCK intron_variant:HCK intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_30672041   </t>
+  </si>
+  <si>
+    <t>chr4_4190511</t>
+  </si>
+  <si>
+    <t>CHD6 synonymous_variant:CHD6 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_40081471   </t>
+  </si>
+  <si>
+    <t>chr4_77955743</t>
+  </si>
+  <si>
+    <t>CSTF2 intron_variant:CSTF2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_100093206   </t>
+  </si>
+  <si>
+    <t>chr4_96199632</t>
+  </si>
+  <si>
+    <t>PHLPP1 intron_variant:PHLPP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_60493391   </t>
+  </si>
+  <si>
+    <t>chr4_164247496</t>
+  </si>
+  <si>
+    <t>SEPT11 intron_variant&amp;non_coding_transcript_variant:SEPT11 intron_variant:SEPT11 3_prime_UTR_variant:SEPT11 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_77955743   </t>
+  </si>
+  <si>
+    <t>chr5_979412</t>
+  </si>
+  <si>
+    <t>ATP8A2 intron_variant&amp;NMD_transcript_variant:ATP8A2 intron_variant:ATP8A2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_26411563   </t>
+  </si>
+  <si>
+    <t>chr5_13720970</t>
+  </si>
+  <si>
+    <t>EPHA3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_89157126   </t>
+  </si>
+  <si>
     <t>EPHA3</t>
   </si>
   <si>
-    <t>chr3_125534911</t>
-  </si>
-  <si>
-    <t>chr3_125534931</t>
-  </si>
-  <si>
-    <t>chr3_126390443</t>
-  </si>
-  <si>
-    <t>chr4_289034</t>
-  </si>
-  <si>
-    <t>ZNF732</t>
-  </si>
-  <si>
-    <t>chr4_289058</t>
-  </si>
-  <si>
-    <t>chr4_337950</t>
-  </si>
-  <si>
-    <t>ZNF141</t>
-  </si>
-  <si>
-    <t>chr4_337977</t>
-  </si>
-  <si>
-    <t>chr4_4190507</t>
-  </si>
-  <si>
-    <t>chr4_4190511</t>
-  </si>
-  <si>
-    <t>chr4_77955743</t>
-  </si>
-  <si>
-    <t>SEPT11</t>
-  </si>
-  <si>
-    <t>chr4_96199632</t>
-  </si>
-  <si>
-    <t>UNC5C</t>
-  </si>
-  <si>
-    <t>chr4_164247496</t>
-  </si>
-  <si>
-    <t>NPY1R</t>
-  </si>
-  <si>
-    <t>chr5_979412</t>
-  </si>
-  <si>
-    <t>chr5_13720970</t>
-  </si>
-  <si>
-    <t>DNAH5</t>
+    <t>intron_variant</t>
   </si>
   <si>
     <t>chr5_74646489</t>
   </si>
   <si>
-    <t>HMGCR</t>
+    <t xml:space="preserve">chr10_19412253   </t>
   </si>
   <si>
     <t>chr5_102375641</t>
   </si>
   <si>
+    <t>KMT2A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-770J1.3 intron_variant&amp;non_coding_transcript_variant:KMT2A intron_variant:KMT2A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_118391365   </t>
+  </si>
+  <si>
+    <t>KMT2A:KMT2A:KMT2A</t>
+  </si>
+  <si>
+    <t>non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:intron_variant:intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
     <t>chr5_122011890</t>
   </si>
   <si>
-    <t>RP11-166A12.1:ARGFXP1</t>
+    <t xml:space="preserve">chr1_12942138   </t>
   </si>
   <si>
     <t>chr5_134154398</t>
   </si>
   <si>
-    <t>DDX46</t>
+    <t>PABPC1 intron_variant&amp;non_coding_transcript_variant:PABPC1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_101728027   </t>
+  </si>
+  <si>
+    <t>PABPC1:PABPC1</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;non_coding_transcript_variant:intron_variant</t>
   </si>
   <si>
     <t>chr6_17600713</t>
   </si>
   <si>
+    <t>GRID2IP intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_6545344   </t>
+  </si>
+  <si>
     <t>chr6_17600736</t>
   </si>
   <si>
+    <t>MSR1 intron_variant&amp;non_coding_transcript_variant:MSR1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_16282499   </t>
+  </si>
+  <si>
     <t>chr6_30529587</t>
   </si>
   <si>
-    <t>PRR3</t>
+    <t>DERL2 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:DERL2 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:DERL2 splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_5383367   </t>
   </si>
   <si>
     <t>chr6_30596388</t>
   </si>
   <si>
-    <t>ATAT1</t>
+    <t>SLC52A3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SLC52A3 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_746245   </t>
   </si>
   <si>
     <t>chr6_32029432</t>
   </si>
   <si>
-    <t>TNXB</t>
+    <t xml:space="preserve">chr22_34986631   </t>
   </si>
   <si>
     <t>chr6_45390445</t>
   </si>
   <si>
-    <t>RUNX2</t>
+    <t>B4GALT4 intron_variant&amp;NMD_transcript_variant:B4GALT4 intron_variant:B4GALT4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_118935302   </t>
   </si>
   <si>
     <t>chr6_45390466</t>
   </si>
   <si>
+    <t>RP11-262H14.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_66457773   </t>
+  </si>
+  <si>
     <t>chr6_150300287</t>
   </si>
   <si>
+    <t>BRCA1 intron_variant:BRCA1 intron_variant&amp;non_coding_transcript_variant:BRCA1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_41247620   </t>
+  </si>
+  <si>
+    <t>BRCA1:BRCA1:BRCA1</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;non_coding_transcript_variant:intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
     <t>chr6_160319731</t>
   </si>
   <si>
+    <t>RP11-166A12.1 intron_variant&amp;non_coding_transcript_variant:ARGFXP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_122011890   </t>
+  </si>
+  <si>
     <t>chr7_2480040</t>
   </si>
   <si>
-    <t>AC004840.9</t>
+    <t>RP1-207H1.3 intron_variant&amp;non_coding_transcript_variant:DNAH8 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_38897492   </t>
   </si>
   <si>
     <t>chr7_20825145</t>
   </si>
   <si>
-    <t>SP8</t>
+    <t xml:space="preserve">chr11_71279725   </t>
   </si>
   <si>
     <t>chr7_26764991</t>
   </si>
   <si>
-    <t>SKAP2</t>
+    <t>TRIM46 missense_variant:TRIM46 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-201K10.3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_155149543   </t>
   </si>
   <si>
     <t>chr7_36660502</t>
   </si>
   <si>
-    <t>AOAH</t>
+    <t>ZNF141 intron_variant&amp;non_coding_transcript_variant:ZNF141 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_337977   </t>
   </si>
   <si>
     <t>chr7_49064017</t>
   </si>
   <si>
+    <t>SLC10A7 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_147226970   </t>
+  </si>
+  <si>
     <t>chr7_96639505</t>
   </si>
   <si>
-    <t>DLX6-AS1:DLX6</t>
+    <t>NEK9 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:NEK9 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_75573266   </t>
   </si>
   <si>
     <t>chr7_97616713</t>
   </si>
   <si>
-    <t>OCM2</t>
+    <t>ITPK1 intron_variant:ITPK1 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_93532665   </t>
   </si>
   <si>
     <t>chr7_97860461</t>
   </si>
   <si>
-    <t>TECPR1</t>
+    <t xml:space="preserve">chr14_106641725   </t>
   </si>
   <si>
     <t>chr7_111387095</t>
   </si>
   <si>
-    <t>DOCK4</t>
+    <t>RINL intron_variant:RINL non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:CTC-360G5.6 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_39361928   </t>
   </si>
   <si>
     <t>chr7_135083052</t>
   </si>
   <si>
-    <t>CNOT4</t>
+    <t>SIRPB2 intron_variant&amp;non_coding_transcript_variant:SIRPB2 intron_variant:SIRPB2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_1458508   </t>
   </si>
   <si>
     <t>chr7_139725413</t>
   </si>
   <si>
-    <t>PARP12</t>
+    <t xml:space="preserve">chrX_150348679   </t>
   </si>
   <si>
     <t>chr7_140401570</t>
   </si>
   <si>
-    <t>NDUFB2</t>
+    <t xml:space="preserve">chr9_68433249   </t>
   </si>
   <si>
     <t>chr7_143094327</t>
   </si>
   <si>
-    <t>EPHA1</t>
+    <t xml:space="preserve">chr4_337950   </t>
   </si>
   <si>
     <t>chr7_154760692</t>
   </si>
   <si>
-    <t>PAXIP1</t>
+    <t>PRR3 intron_variant:PRR3 intron_variant&amp;non_coding_transcript_variant:PRR3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_30529587   </t>
   </si>
   <si>
     <t>chr8_29007657</t>
   </si>
   <si>
-    <t>KIF13B</t>
+    <t>RGS6 missense_variant:RGS6 missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_72431581   </t>
   </si>
   <si>
     <t>chr8_81872364</t>
   </si>
   <si>
+    <t>ZNF106 frameshift_variant:ZNF106 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_42743400   </t>
+  </si>
+  <si>
     <t>chr8_101728027</t>
   </si>
   <si>
-    <t>PABPC1</t>
+    <t xml:space="preserve">chr1_237167633   </t>
   </si>
   <si>
     <t>chr8_139790290</t>
   </si>
   <si>
-    <t>COL22A1</t>
+    <t>VPS13A inframe_deletion:VPS13A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_79999547   </t>
   </si>
   <si>
     <t>chr9_68429057</t>
   </si>
   <si>
+    <t>C5 intron_variant&amp;non_coding_transcript_variant:C5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_123794598   </t>
+  </si>
+  <si>
     <t>chr9_79999547</t>
   </si>
   <si>
-    <t>VPS13A</t>
+    <t>FRG1B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_29633730   </t>
   </si>
   <si>
     <t>chr9_113548092</t>
   </si>
   <si>
-    <t>MUSK</t>
+    <t xml:space="preserve">chr19_20870404   </t>
   </si>
   <si>
     <t>chr10_19412253</t>
   </si>
   <si>
+    <t>ANKRD66 3_prime_UTR_variant:RP11-268F1.3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_46726689   </t>
+  </si>
+  <si>
     <t>chr10_89720868</t>
   </si>
   <si>
-    <t>PTEN</t>
-  </si>
-  <si>
-    <t>PTEN Indel</t>
+    <t xml:space="preserve">chr17_21904533   </t>
   </si>
   <si>
     <t>chr10_129178159</t>
   </si>
   <si>
+    <t>ZNF732 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_289034   </t>
+  </si>
+  <si>
     <t>chr11_4103466</t>
   </si>
   <si>
-    <t>STIM1</t>
+    <t xml:space="preserve">chr4_289058   </t>
   </si>
   <si>
     <t>chr11_6662745</t>
   </si>
   <si>
+    <t>KIF13B intron_variant&amp;NMD_transcript_variant:KIF13B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_29007657   </t>
+  </si>
+  <si>
     <t>chr11_10778509</t>
   </si>
   <si>
-    <t>CTR9</t>
+    <t>AC022596.6 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_16725483   </t>
   </si>
   <si>
     <t>chr11_17111197</t>
   </si>
   <si>
-    <t>PIK3C2A</t>
+    <t>THSD7B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_138357538   </t>
   </si>
   <si>
     <t>chr11_33639895</t>
   </si>
   <si>
-    <t>KIAA1549L</t>
+    <t xml:space="preserve">chr10_129178159   </t>
   </si>
   <si>
     <t>chr11_43401008</t>
   </si>
   <si>
-    <t>TTC17:RP11-484D2.5</t>
+    <t>EPS8 intron_variant:EPS8 splice_region_variant&amp;intron_variant:EPS8 intron_variant&amp;NMD_transcript_variant:EPS8 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_15834239   </t>
   </si>
   <si>
     <t>chr11_46912171</t>
   </si>
   <si>
-    <t>LRP4</t>
+    <t xml:space="preserve">chr1_228003720   </t>
   </si>
   <si>
     <t>chr11_67787366</t>
   </si>
   <si>
-    <t>ALDH3B1</t>
+    <t xml:space="preserve">chr10_104123638   </t>
   </si>
   <si>
     <t>chr11_71616400</t>
   </si>
   <si>
-    <t>RP11-849H4.2</t>
+    <t xml:space="preserve">chr12_128778470   </t>
   </si>
   <si>
     <t>chr11_117863901</t>
   </si>
   <si>
-    <t>IL10RA</t>
+    <t>AMBN intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_71462650   </t>
   </si>
   <si>
     <t>chr11_118391365</t>
   </si>
   <si>
-    <t>KMT2A:RP11-770J1.3</t>
+    <t>RXFP1 intron_variant&amp;NMD_transcript_variant:RXFP1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_159559061   </t>
   </si>
   <si>
     <t>chr12_15834239</t>
   </si>
   <si>
-    <t>EPS8</t>
+    <t>ZNF431 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_21347306   </t>
   </si>
   <si>
     <t>chr12_30903903</t>
   </si>
   <si>
-    <t>CAPRIN2</t>
+    <t>SH3BP1 intron_variant:Z83844.1 intron_variant&amp;non_coding_transcript_variant:SH3BP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SH3BP1 intron_variant&amp;non_coding_transcript_variant:SH3BP1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_38041019   </t>
   </si>
   <si>
     <t>chr12_55945714</t>
   </si>
   <si>
-    <t>RP11-110A12.2:OR6C4</t>
+    <t>FRG1B intron_variant:FRG1B intron_variant&amp;non_coding_transcript_variant:FRG1B non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_29612945   </t>
   </si>
   <si>
     <t>chr12_66275432</t>
   </si>
   <si>
-    <t>HMGA2:RP11-366L20.2</t>
+    <t>UBR4 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_19536586   </t>
   </si>
   <si>
     <t>chr12_101702202</t>
   </si>
   <si>
+    <t>SEC13 intron_variant:SEC13 intron_variant&amp;non_coding_transcript_variant:SEC13 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_10355242   </t>
+  </si>
+  <si>
     <t>chr12_111537985</t>
   </si>
   <si>
-    <t>CUX2</t>
+    <t>TENM3 synonymous_variant:TENM3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_183676059   </t>
   </si>
   <si>
     <t>chr12_122990331</t>
   </si>
   <si>
-    <t>RSRC2</t>
+    <t>AC008697.1 intron_variant&amp;non_coding_transcript_variant:IL12B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_158749365   </t>
   </si>
   <si>
     <t>chr13_26411563</t>
   </si>
   <si>
-    <t>ATP8A2</t>
+    <t xml:space="preserve">chr6_17600736   </t>
   </si>
   <si>
     <t>chr13_96294032</t>
   </si>
   <si>
-    <t>DZIP1</t>
+    <t>AC004840.9 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_2480040   </t>
   </si>
   <si>
     <t>chr13_100634393</t>
   </si>
   <si>
+    <t>DPY19L1 intron_variant:DPY19L1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_35029743   </t>
+  </si>
+  <si>
     <t>chr13_103474553</t>
   </si>
   <si>
-    <t>BIVM-ERCC5:BIVM</t>
+    <t>NPC1L1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_44574007   </t>
   </si>
   <si>
     <t>chr14_58599674</t>
   </si>
   <si>
-    <t>C14orf37</t>
+    <t xml:space="preserve">chr9_68358313   </t>
   </si>
   <si>
     <t>chr14_74004639</t>
   </si>
   <si>
-    <t>HEATR4:ACOT1</t>
+    <t>MMP26 intron_variant:OR52R1 synonymous_variant:MMP26 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_4825374   </t>
   </si>
   <si>
     <t>chr14_93532665</t>
   </si>
   <si>
-    <t>ITPK1</t>
+    <t xml:space="preserve">chr12_39994544   </t>
   </si>
   <si>
     <t>chr15_20886435</t>
   </si>
   <si>
-    <t>NBEAP1</t>
+    <t>FMN1 intron_variant:FMN1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_33090916   </t>
   </si>
   <si>
     <t>chr15_42743400</t>
   </si>
   <si>
-    <t>ZNF106</t>
+    <t>NCOR1 intron_variant:NCOR1 intron_variant&amp;non_coding_transcript_variant:NCOR1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_15952464   </t>
+  </si>
+  <si>
+    <t>NCOR1:NCOR1:NCOR1</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;non_coding_transcript_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr15_65345624</t>
   </si>
   <si>
-    <t>SLC51B</t>
+    <t>ELOF1 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_11664878   </t>
   </si>
   <si>
     <t>chr15_74368293</t>
   </si>
   <si>
-    <t>GOLGA6A</t>
+    <t xml:space="preserve">chr20_210074   </t>
   </si>
   <si>
     <t>chr15_75541370</t>
   </si>
   <si>
+    <t>MROH8 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_35740741   </t>
+  </si>
+  <si>
     <t>chr15_76552643</t>
   </si>
   <si>
-    <t>ETFA:TYRO3P</t>
+    <t>HPS4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:HPS4 missense_variant:HPS4 3_prime_UTR_variant&amp;NMD_transcript_variant:HPS4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_26860747   </t>
   </si>
   <si>
     <t>chr15_76552684</t>
   </si>
   <si>
+    <t>MAGEA11 intron_variant:MAGEA11 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_148770786   </t>
+  </si>
+  <si>
     <t>chr15_102304933</t>
   </si>
   <si>
-    <t>DNM1P47</t>
+    <t>SIPA1L2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_232650919   </t>
   </si>
   <si>
     <t>chr16_1291175</t>
   </si>
   <si>
-    <t>TPSAB1</t>
+    <t xml:space="preserve">chr3_125534911   </t>
   </si>
   <si>
     <t>chr16_29888367</t>
   </si>
   <si>
-    <t>SEZ6L2</t>
+    <t>LYAR intron_variant:LYAR intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_4269831   </t>
   </si>
   <si>
     <t>chr16_67469995</t>
   </si>
   <si>
-    <t>HSD11B2</t>
+    <t>ANKRD18B 3_prime_UTR_variant:ANKRD18B missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_33572353   </t>
   </si>
   <si>
     <t>chr16_71101433</t>
   </si>
   <si>
-    <t>HYDIN</t>
+    <t>TRPC6 intron_variant:TRPC6 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_101374559   </t>
   </si>
   <si>
     <t>chr17_5383367</t>
   </si>
   <si>
-    <t>DERL2</t>
+    <t>NBEAP1 splice_region_variant&amp;non_coding_transcript_exon_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_20886435   </t>
   </si>
   <si>
     <t>chr17_7572975</t>
   </si>
   <si>
-    <t>TP53</t>
-  </si>
-  <si>
-    <t>TP53 Indel</t>
+    <t xml:space="preserve">chr17_38644758   </t>
   </si>
   <si>
     <t>chr17_7578429</t>
   </si>
   <si>
+    <t>STAT3 splice_region_variant&amp;intron_variant:STAT3 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_40476724   </t>
+  </si>
+  <si>
+    <t>STAT3:STAT3</t>
+  </si>
+  <si>
+    <t>splice_region_variant&amp;intron_variant:splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
     <t>chr17_7578436</t>
   </si>
   <si>
+    <t>RNF138 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_29693910   </t>
+  </si>
+  <si>
     <t>chr17_15952464</t>
   </si>
   <si>
-    <t>NCOR1</t>
+    <t xml:space="preserve">chr1_149648242   </t>
   </si>
   <si>
     <t>chr17_17909193</t>
   </si>
   <si>
-    <t>LRRC48:ATPAF2</t>
+    <t>ANAPC1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_112592117   </t>
   </si>
   <si>
     <t>chr17_26101214</t>
   </si>
   <si>
-    <t>NOS2</t>
+    <t>C5orf42 intron_variant:C5orf42 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_37180058   </t>
   </si>
   <si>
     <t>chr17_28499864</t>
   </si>
   <si>
-    <t>NSRP1</t>
+    <t>PAXIP1 inframe_deletion:PAXIP1 3_prime_UTR_variant&amp;NMD_transcript_variant:PAXIP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_154760692   </t>
   </si>
   <si>
     <t>chr17_38644758</t>
   </si>
   <si>
+    <t xml:space="preserve">chr8_95825647   </t>
+  </si>
+  <si>
     <t>chr17_41247620</t>
   </si>
   <si>
-    <t>BRCA1</t>
+    <t>PIK3C2A 3_prime_UTR_variant:PIK3C2A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_17111197   </t>
   </si>
   <si>
     <t>chr17_56688726</t>
   </si>
   <si>
-    <t>TEX14</t>
+    <t>HMGA2 intron_variant:RP11-366L20.2 intron_variant:HMGA2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_66275432   </t>
+  </si>
+  <si>
+    <t>HMGA2:HMGA2</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chr17_61688219</t>
   </si>
   <si>
-    <t>RP11-51F16.9</t>
+    <t xml:space="preserve">chr17_61688160   </t>
   </si>
   <si>
     <t>chr17_67246495</t>
   </si>
   <si>
-    <t>ABCA5</t>
+    <t xml:space="preserve">chr19_43783047   </t>
   </si>
   <si>
     <t>chr18_29693910</t>
   </si>
   <si>
-    <t>RNF138</t>
+    <t>AC018865.5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:FAR2P1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_130751419   </t>
   </si>
   <si>
     <t>chr18_60493391</t>
   </si>
   <si>
-    <t>PHLPP1</t>
+    <t xml:space="preserve">chr3_53854778   </t>
   </si>
   <si>
     <t>chr19_1236046</t>
   </si>
   <si>
-    <t>C19orf26</t>
+    <t>TTC17 intron_variant:TTC17 intron_variant&amp;non_coding_transcript_variant:RP11-484D2.5 intron_variant&amp;non_coding_transcript_variant:TTC17 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_43401008   </t>
   </si>
   <si>
     <t>chr19_2290756</t>
   </si>
   <si>
-    <t>LINGO3</t>
+    <t>GOLGA6A missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_74368293   </t>
   </si>
   <si>
     <t>chr19_2290792</t>
   </si>
   <si>
+    <t xml:space="preserve">chr15_74368297   </t>
+  </si>
+  <si>
     <t>chr19_5691987</t>
   </si>
   <si>
-    <t>LONP1</t>
+    <t>LONP1 3_prime_UTR_variant&amp;NMD_transcript_variant:LONP1 3_prime_UTR_variant:LONP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_5691987   </t>
   </si>
   <si>
     <t>chr19_7006088</t>
   </si>
   <si>
+    <t xml:space="preserve">chr19_43780719   </t>
+  </si>
+  <si>
     <t>chr19_12544187</t>
   </si>
   <si>
-    <t>CTD-3105H18.16:ZNF443:CTD-3105H18.18</t>
+    <t>IQCF5-AS1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:IQCF5 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_51907870   </t>
   </si>
   <si>
     <t>chr19_16092411</t>
   </si>
   <si>
-    <t>CYP4F9P</t>
+    <t xml:space="preserve">chr5_68630885   </t>
   </si>
   <si>
     <t>chr19_20870404</t>
   </si>
   <si>
+    <t>RUNX2 inframe_deletion:RUNX2 intron_variant&amp;NMD_transcript_variant:RUNX2 inframe_deletion&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_45390445   </t>
+  </si>
+  <si>
     <t>chr19_36049455</t>
   </si>
   <si>
-    <t>ATP4A</t>
+    <t xml:space="preserve">chr9_68433313   </t>
   </si>
   <si>
     <t>chr19_39787413</t>
   </si>
   <si>
-    <t>IFNL1</t>
+    <t xml:space="preserve">chr14_19401753   </t>
   </si>
   <si>
     <t>chr19_41386544</t>
   </si>
   <si>
-    <t>CYP2A7:CTC-490E21.12</t>
+    <t>TTC6 3_prime_UTR_variant:TTC6 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_38311585   </t>
   </si>
   <si>
     <t>chr19_41758069</t>
   </si>
   <si>
-    <t>AXL</t>
+    <t>C15orf59 missense_variant:C15orf59 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_74032485   </t>
   </si>
   <si>
     <t>chr19_43783047</t>
   </si>
   <si>
+    <t>FAM9B intron_variant&amp;non_coding_transcript_variant:FAM9B intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_9050450   </t>
+  </si>
+  <si>
     <t>chr19_45655991</t>
   </si>
   <si>
-    <t>MARK4:NKPD1</t>
+    <t>RIMS3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_41094414   </t>
   </si>
   <si>
     <t>chr19_45656001</t>
   </si>
   <si>
+    <t>GPAT2 splice_region_variant&amp;intron_variant:GPAT2 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_96691768   </t>
+  </si>
+  <si>
     <t>chr20_25304173</t>
   </si>
   <si>
-    <t>ABHD12</t>
+    <t>PARP12 intron_variant&amp;NMD_transcript_variant:PARP12 intron_variant:PARP12 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_139725413   </t>
   </si>
   <si>
     <t>chr20_35555434</t>
   </si>
   <si>
-    <t>SAMHD1</t>
+    <t>CLEC9A intron_variant:CLEC9A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_10191719   </t>
   </si>
   <si>
     <t>chr20_37621247</t>
   </si>
   <si>
-    <t>DHX35</t>
+    <t xml:space="preserve">chr12_61625381   </t>
   </si>
   <si>
     <t>chr21_10945011</t>
   </si>
   <si>
-    <t>TPTE</t>
+    <t xml:space="preserve">chr13_100634393   </t>
   </si>
   <si>
     <t>chrX_48140624</t>
   </si>
   <si>
-    <t>RP11-344N17.11</t>
+    <t xml:space="preserve">chr7_38284808   </t>
   </si>
   <si>
     <t>chrX_100093206</t>
   </si>
   <si>
-    <t>CSTF2</t>
+    <t>RP11-110A12.2 intron_variant&amp;non_coding_transcript_variant:OR6C4 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_55945714   </t>
   </si>
   <si>
     <t>chrX_140993812</t>
   </si>
   <si>
-    <t>MAGEC1</t>
+    <t>MARK4 intron_variant:NKPD1 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_45655991   </t>
   </si>
   <si>
     <t>chrX_151996539</t>
   </si>
   <si>
-    <t>CETN2</t>
+    <t>MAGEC1 intron_variant:MAGEC1 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_140993812   </t>
   </si>
 </sst>
 </file>
@@ -1140,13 +1590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1174,10 +1624,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1201,12 +1657,15 @@
         <v>0.148148148148148</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1230,12 +1689,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1259,12 +1721,15 @@
         <v>0.0731707317073171</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1288,12 +1753,15 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1317,12 +1785,15 @@
         <v>0.4</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1346,12 +1817,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1375,12 +1849,15 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1404,12 +1881,21 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1433,12 +1919,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1462,12 +1951,15 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1491,12 +1983,15 @@
         <v>0.125</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1520,12 +2015,15 @@
         <v>0.0192307692307692</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1549,12 +2047,15 @@
         <v>0.0961538461538462</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1578,12 +2079,15 @@
         <v>0.125</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1607,12 +2111,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1636,12 +2143,15 @@
         <v>0.02</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1665,12 +2175,15 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1694,12 +2207,15 @@
         <v>0.0555555555555556</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1723,12 +2239,15 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1752,12 +2271,15 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1781,12 +2303,15 @@
         <v>0.0142857142857143</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1810,12 +2335,15 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1839,12 +2367,15 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1868,12 +2399,15 @@
         <v>0.101694915254237</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1897,12 +2431,15 @@
         <v>0.0985915492957746</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1926,12 +2463,15 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1955,12 +2495,15 @@
         <v>0.0151515151515152</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1984,12 +2527,15 @@
         <v>0.198019801980198</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2013,12 +2559,15 @@
         <v>0.161290322580645</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2042,12 +2591,15 @@
         <v>0.191489361702128</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2071,12 +2623,15 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2100,12 +2655,21 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2129,12 +2693,15 @@
         <v>0.259259259259259</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2158,12 +2725,21 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2187,12 +2763,15 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2216,12 +2795,21 @@
         <v>0.25</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J37" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2245,12 +2833,15 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2274,12 +2865,15 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2303,12 +2897,15 @@
         <v>0.115942028985507</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2332,12 +2929,15 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2361,12 +2961,15 @@
         <v>0.275862068965517</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2390,12 +2993,15 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2419,12 +3025,15 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2448,12 +3057,21 @@
         <v>0.135135135135135</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J45" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2477,12 +3095,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2506,12 +3127,15 @@
         <v>0.0425531914893617</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2535,12 +3159,15 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2564,12 +3191,15 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2593,12 +3223,15 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2622,12 +3255,15 @@
         <v>0.1875</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2651,12 +3287,15 @@
         <v>0.0217391304347826</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2680,12 +3319,15 @@
         <v>0.08</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2709,12 +3351,15 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2738,12 +3383,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>167</v>
+      </c>
+      <c r="J55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2767,12 +3415,15 @@
         <v>0.0408163265306122</v>
       </c>
       <c r="I56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2796,12 +3447,15 @@
         <v>0.0957446808510638</v>
       </c>
       <c r="I57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2825,12 +3479,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2854,12 +3511,15 @@
         <v>0.0434782608695652</v>
       </c>
       <c r="I59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2883,12 +3543,15 @@
         <v>0.0405405405405405</v>
       </c>
       <c r="I60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2912,12 +3575,15 @@
         <v>0.0185185185185185</v>
       </c>
       <c r="I61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2941,12 +3607,15 @@
         <v>0.454545454545455</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2970,12 +3639,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2999,12 +3671,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="I64" t="s">
-        <v>116</v>
+        <v>190</v>
+      </c>
+      <c r="J64" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3028,12 +3703,15 @@
         <v>0.024390243902439</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>193</v>
+      </c>
+      <c r="J65" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3057,12 +3735,15 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>119</v>
+        <v>196</v>
+      </c>
+      <c r="J66" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3086,12 +3767,15 @@
         <v>0.125</v>
       </c>
       <c r="I67" t="s">
-        <v>121</v>
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3115,12 +3799,15 @@
         <v>0.04</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>201</v>
+      </c>
+      <c r="J68" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3144,15 +3831,15 @@
         <v>0.549295774647887</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="J69" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3176,12 +3863,15 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>206</v>
+      </c>
+      <c r="J70" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3205,12 +3895,15 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>128</v>
+        <v>206</v>
+      </c>
+      <c r="J71" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3234,12 +3927,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>211</v>
+      </c>
+      <c r="J72" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3263,12 +3959,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I73" t="s">
-        <v>131</v>
+        <v>214</v>
+      </c>
+      <c r="J73" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3292,12 +3991,15 @@
         <v>0.0181818181818182</v>
       </c>
       <c r="I74" t="s">
-        <v>133</v>
+        <v>217</v>
+      </c>
+      <c r="J74" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3321,12 +4023,15 @@
         <v>0.0425531914893617</v>
       </c>
       <c r="I75" t="s">
-        <v>135</v>
+        <v>11</v>
+      </c>
+      <c r="J75" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3350,12 +4055,15 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>137</v>
+        <v>222</v>
+      </c>
+      <c r="J76" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3379,12 +4087,15 @@
         <v>0.15</v>
       </c>
       <c r="I77" t="s">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3408,12 +4119,15 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3437,12 +4151,15 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>143</v>
+        <v>11</v>
+      </c>
+      <c r="J79" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3466,12 +4183,15 @@
         <v>0.00704225352112676</v>
       </c>
       <c r="I80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>231</v>
+      </c>
+      <c r="J80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3495,12 +4215,15 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>234</v>
+      </c>
+      <c r="J81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3524,12 +4247,15 @@
         <v>0.0655737704918033</v>
       </c>
       <c r="I82" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3553,12 +4279,15 @@
         <v>0.0336134453781513</v>
       </c>
       <c r="I83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>240</v>
+      </c>
+      <c r="J83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3582,12 +4311,15 @@
         <v>0.0050251256281407</v>
       </c>
       <c r="I84" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3611,12 +4343,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>246</v>
+      </c>
+      <c r="J85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3640,12 +4375,15 @@
         <v>0.0172413793103448</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>249</v>
+      </c>
+      <c r="J86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3669,12 +4407,15 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>252</v>
+      </c>
+      <c r="J87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3698,12 +4439,15 @@
         <v>0.0882352941176471</v>
       </c>
       <c r="I88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3727,12 +4471,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="I89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J89" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3756,12 +4503,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3785,12 +4535,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>263</v>
+      </c>
+      <c r="J91" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3814,12 +4567,15 @@
         <v>0.075</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>266</v>
+      </c>
+      <c r="J92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3843,12 +4599,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="I93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3872,12 +4631,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I94" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>271</v>
+      </c>
+      <c r="J94" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3901,12 +4663,15 @@
         <v>0.125</v>
       </c>
       <c r="I95" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3930,12 +4695,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>276</v>
+      </c>
+      <c r="J96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3959,12 +4727,21 @@
         <v>0.443609022556391</v>
       </c>
       <c r="I97" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>279</v>
+      </c>
+      <c r="J97" t="s">
+        <v>280</v>
+      </c>
+      <c r="K97" t="s">
+        <v>281</v>
+      </c>
+      <c r="L97" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3988,12 +4765,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I98" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>284</v>
+      </c>
+      <c r="J98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4017,12 +4797,15 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4046,12 +4829,15 @@
         <v>0.0882352941176471</v>
       </c>
       <c r="I100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>289</v>
+      </c>
+      <c r="J100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4075,12 +4861,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I101" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>292</v>
+      </c>
+      <c r="J101" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4104,12 +4893,15 @@
         <v>0.214285714285714</v>
       </c>
       <c r="I102" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>295</v>
+      </c>
+      <c r="J102" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4133,12 +4925,15 @@
         <v>0.148148148148148</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J103" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4162,12 +4957,15 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J104" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4191,12 +4989,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="I105" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>303</v>
+      </c>
+      <c r="J105" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4220,12 +5021,15 @@
         <v>0.0306122448979592</v>
       </c>
       <c r="I106" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>306</v>
+      </c>
+      <c r="J106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4249,12 +5053,15 @@
         <v>0.25</v>
       </c>
       <c r="I107" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>309</v>
+      </c>
+      <c r="J107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4278,12 +5085,15 @@
         <v>0.363636363636364</v>
       </c>
       <c r="I108" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>312</v>
+      </c>
+      <c r="J108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4307,15 +5117,15 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="J109" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4339,15 +5149,21 @@
         <v>0.35</v>
       </c>
       <c r="I110" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="J110" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>318</v>
+      </c>
+      <c r="K110" t="s">
+        <v>319</v>
+      </c>
+      <c r="L110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4371,15 +5187,15 @@
         <v>0.303030303030303</v>
       </c>
       <c r="I111" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="J111" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4403,12 +5219,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J112" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4432,12 +5251,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I113" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>327</v>
+      </c>
+      <c r="J113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4461,12 +5283,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="I114" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="J114" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4490,12 +5315,15 @@
         <v>0.0434782608695652</v>
       </c>
       <c r="I115" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>333</v>
+      </c>
+      <c r="J115" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4519,12 +5347,15 @@
         <v>0.0212765957446809</v>
       </c>
       <c r="I116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J116" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4548,12 +5379,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="I117" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>338</v>
+      </c>
+      <c r="J117" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4577,12 +5411,21 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="I118" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>341</v>
+      </c>
+      <c r="J118" t="s">
+        <v>342</v>
+      </c>
+      <c r="K118" t="s">
+        <v>343</v>
+      </c>
+      <c r="L118" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>345</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4606,12 +5449,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="I119" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J119" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4635,12 +5481,15 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J120" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4664,12 +5513,15 @@
         <v>0.036144578313253</v>
       </c>
       <c r="I121" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>350</v>
+      </c>
+      <c r="J121" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4693,12 +5545,15 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J122" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4722,12 +5577,15 @@
         <v>0.0810810810810811</v>
       </c>
       <c r="I123" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>355</v>
+      </c>
+      <c r="J123" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4751,12 +5609,15 @@
         <v>0.261437908496732</v>
       </c>
       <c r="I124" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>358</v>
+      </c>
+      <c r="J124" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4780,12 +5641,15 @@
         <v>0.238709677419355</v>
       </c>
       <c r="I125" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J125" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4809,12 +5673,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="I126" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>363</v>
+      </c>
+      <c r="J126" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4838,12 +5705,15 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J127" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4867,12 +5737,15 @@
         <v>0.319148936170213</v>
       </c>
       <c r="I128" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>368</v>
+      </c>
+      <c r="J128" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4896,12 +5769,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="I129" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J129" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4925,12 +5801,15 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>373</v>
+      </c>
+      <c r="J130" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4954,12 +5833,15 @@
         <v>0.348571428571429</v>
       </c>
       <c r="I131" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J131" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4983,12 +5865,15 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J132" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>379</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5012,12 +5897,15 @@
         <v>0.454545454545455</v>
       </c>
       <c r="I133" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>380</v>
+      </c>
+      <c r="J133" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>243</v>
+        <v>382</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5041,12 +5929,15 @@
         <v>0.0784313725490196</v>
       </c>
       <c r="I134" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>383</v>
+      </c>
+      <c r="J134" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5070,12 +5961,15 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="I135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>386</v>
+      </c>
+      <c r="J135" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5099,12 +5993,15 @@
         <v>0.0350877192982456</v>
       </c>
       <c r="I136" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>389</v>
+      </c>
+      <c r="J136" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>248</v>
+        <v>391</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -5128,12 +6025,15 @@
         <v>0.0338983050847458</v>
       </c>
       <c r="I137" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>392</v>
+      </c>
+      <c r="J137" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -5157,12 +6057,15 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>395</v>
+      </c>
+      <c r="J138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -5186,12 +6089,15 @@
         <v>0.05</v>
       </c>
       <c r="I139" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>398</v>
+      </c>
+      <c r="J139" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -5215,12 +6121,15 @@
         <v>0.119047619047619</v>
       </c>
       <c r="I140" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J140" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -5244,12 +6153,15 @@
         <v>0.04</v>
       </c>
       <c r="I141" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J141" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5273,12 +6185,15 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J142" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -5302,12 +6217,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I143" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>407</v>
+      </c>
+      <c r="J143" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>261</v>
+        <v>409</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -5331,12 +6249,15 @@
         <v>0.00497512437810945</v>
       </c>
       <c r="I144" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>410</v>
+      </c>
+      <c r="J144" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -5360,7 +6281,10 @@
         <v>0.0384615384615385</v>
       </c>
       <c r="I145" t="s">
-        <v>264</v>
+        <v>413</v>
+      </c>
+      <c r="J145" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
